--- a/journal_de_bord.xlsx
+++ b/journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18736\Desktop\cours\Actuellement\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD13B08-E9D7-4830-860A-567ECAA85B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73921C-5B0B-466E-9978-EF264E63D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIPAMA ROMARIC SOSTHENE" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Oumar Kone" sheetId="3" r:id="rId3"/>
     <sheet name="Sanfo Adama" sheetId="6" r:id="rId4"/>
     <sheet name="Mohamed Siemde" sheetId="7" r:id="rId5"/>
+    <sheet name="Axel Sedgho" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="247">
   <si>
     <r>
       <rPr>
@@ -2008,13 +2009,88 @@
   </si>
   <si>
     <t>total des heures impliquées dans le projet jusqu'à présent = 137 heures</t>
+  </si>
+  <si>
+    <t>Journal de board</t>
+  </si>
+  <si>
+    <t>Titre du Projet</t>
+  </si>
+  <si>
+    <t>Systeme de surveillance de la qualité de l'air</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Axel Sedgho</t>
+  </si>
+  <si>
+    <t>Durée (h)</t>
+  </si>
+  <si>
+    <t>Cumul (h)</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Recherche sur les différents projets a choisir dans le cadre du cours de projet GEI 1075</t>
+  </si>
+  <si>
+    <t>Réunion pour la préparation de la présentation du lendemain avec proposition de projets</t>
+  </si>
+  <si>
+    <t>Choix du projet et recherche générale sur sur le projet choisi incluant les sous systèmes ainsi que les objectifs SMART</t>
+  </si>
+  <si>
+    <t>Recherche concernant le système d'alimentation du projet ainsi que sa gestion énergétique</t>
+  </si>
+  <si>
+    <t>Réunion pour la préparation de la présentation du lendemain</t>
+  </si>
+  <si>
+    <t>Recherche des différentes solutions existantes et les normes en rapport avec le projet</t>
+  </si>
+  <si>
+    <t>Suite des recherches sur le système d'alimentation</t>
+  </si>
+  <si>
+    <t>Recherche des capteurs pour la mesure des gaz qui m'ont été attribué</t>
+  </si>
+  <si>
+    <t>Finalisation de ma tache sur la recherche et étude des capteurs sélectionnés</t>
+  </si>
+  <si>
+    <t>Mise a jour de l'inventaire des composants du système d'alimentation</t>
+  </si>
+  <si>
+    <t>Recherche sur la passerelle de communication</t>
+  </si>
+  <si>
+    <t>Étude du fonctionnement du protocole de communication LORAWAN</t>
+  </si>
+  <si>
+    <t>Étude du fonctionnement du protocole de communication Wi-Fi</t>
+  </si>
+  <si>
+    <t>Étude de la configuration du protocole de communication WI-FI</t>
+  </si>
+  <si>
+    <t>Rencontre avec ROMARIC pour l'établissement du tableau recapitulatif de la plage de tension et la consommation d’énergie (capteurs et microcontrôleur)</t>
+  </si>
+  <si>
+    <t>Préparation personnel de la présentation de la phase#2</t>
+  </si>
+  <si>
+    <t>Réunion pour la préparation de la présentation de la phase#2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2207,6 +2283,44 @@
       <color rgb="FF000000"/>
       <name val="Garamond"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2550,7 +2664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2650,6 +2764,108 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -2668,64 +2884,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2737,47 +2920,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2791,20 +3025,56 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2824,161 +3094,20 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3286,7 +3415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
@@ -3304,108 +3433,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:22" ht="33" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:22" ht="41.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="51">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:22" ht="99.6" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="51">
         <v>2</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="54"/>
       <c r="L7" s="7" t="s">
         <v>82</v>
       </c>
@@ -3416,533 +3545,594 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="U7" s="55">
+      <c r="U7" s="50">
         <f>SUM(B6:D38)</f>
         <v>66</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="50"/>
     </row>
     <row r="8" spans="1:22" ht="66.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="51">
         <v>1.5</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:22" ht="148.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="51">
         <v>3</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:22" ht="33.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="51">
         <v>2</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:22" ht="128.44999999999999" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="51">
         <v>3</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:22" ht="54.2" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="51">
         <v>1.5</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:22" ht="123" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="51">
         <v>3</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:22" ht="54.2" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="51">
         <v>2</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:22" ht="135" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="51">
         <v>3</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:22" ht="63.2" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="51">
         <v>1.5</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="54.6" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="51">
         <v>3</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="43"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" ht="45.2" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="51">
         <v>2</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="81" customHeight="1">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="59">
         <v>3</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="53" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="45.6" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="42" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" ht="54.2" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="51">
         <v>1.5</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="43"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" ht="134.85" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="51">
         <v>3</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" ht="91.35" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="51">
         <v>2</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="43"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7" ht="188.45" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="51">
         <v>1.5</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" spans="1:7" ht="121.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="51">
         <v>3</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" ht="108" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="51">
         <v>2</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" ht="120.6" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="51">
         <v>2</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="1:7" ht="68.849999999999994" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="51">
         <v>2</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:7" ht="73.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="51">
         <v>1.5</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="43"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7" ht="144.6" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="51">
         <v>2</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:7" ht="52.7" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="51">
         <v>2</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="1:7" ht="177.6" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="51">
         <v>3</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="77.849999999999994" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="51">
         <v>2</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" ht="81.2" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="51">
         <v>1</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="54"/>
     </row>
     <row r="35" spans="1:7" ht="108" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="51">
         <v>1</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="1:7" ht="50.25" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="44">
+      <c r="B36" s="51">
         <v>2</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="39" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42" t="s">
+      <c r="E36" s="52"/>
+      <c r="F36" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="43"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" spans="1:7" ht="94.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="51">
         <v>2</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="44" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="52"/>
+      <c r="F37" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="1:7" ht="54.2" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="39" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="1" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
@@ -3959,67 +4149,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4037,623 +4166,680 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:18" ht="15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="21">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:18" ht="30">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="J5" s="64" t="s">
+      <c r="G5" s="54"/>
+      <c r="J5" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="55">
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="50">
         <f>SUM(B6:D37)</f>
         <v>128.5</v>
       </c>
-      <c r="R5" s="55"/>
+      <c r="R5" s="50"/>
     </row>
     <row r="6" spans="1:18" ht="45">
       <c r="A6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="79">
         <v>4</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:18" ht="45">
       <c r="A7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="79">
         <v>4</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:18" ht="45">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="84">
         <v>1</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:18" ht="45">
       <c r="A9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="51">
         <v>2</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:18" ht="45">
       <c r="A10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="51">
         <v>3</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:18" ht="45">
       <c r="A11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="51">
         <v>2</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:18" ht="45">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="55">
         <v>1.5</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:18" ht="45">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="55">
         <v>3</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:18" ht="25.5">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="51">
         <v>1</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:18" ht="25.5">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="51">
         <v>3</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:18" ht="45">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="51">
         <v>2</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="51">
         <v>1</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="43"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" ht="45">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="51">
         <v>2</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="25.5">
       <c r="A19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="51">
         <v>1</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="51">
         <v>2</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" ht="30">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="55">
         <v>1.5</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="43"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" ht="25.5">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="51">
         <v>1</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="51">
         <v>2</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="43"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7" ht="25.5">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="51">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" spans="1:7" ht="30">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="51">
         <v>2</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" ht="25.5">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="51">
         <v>1</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="51">
         <v>2</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="1:7" ht="25.5">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="51">
         <v>1</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="51">
         <v>2</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="43"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7" ht="15">
       <c r="A30" s="6">
         <v>45602</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="51">
         <v>1</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="51">
         <v>2</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="43"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="1:7" ht="25.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="44">
+      <c r="B32" s="51">
         <v>16</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="43"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="25.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="44">
+      <c r="B33" s="51">
         <v>25</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="43"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="44">
+      <c r="B34" s="51">
         <v>15</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="43"/>
+      <c r="G34" s="54"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="44">
+      <c r="B35" s="51">
         <v>7</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="1:7" ht="25.5" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="44">
+      <c r="B36" s="51">
         <v>15</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="43"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" spans="1:7" ht="45.75" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="55">
         <v>1.5</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="J5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="B34:D34"/>
@@ -4670,63 +4856,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4743,77 +4872,77 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="21">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:19" ht="21">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
-      <c r="A6" s="109">
+      <c r="A6" s="33">
         <v>45544</v>
       </c>
       <c r="B6" s="20"/>
@@ -4824,13 +4953,13 @@
       <c r="E6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="A7" s="109">
+      <c r="A7" s="33">
         <v>45544</v>
       </c>
       <c r="B7" s="20"/>
@@ -4841,41 +4970,41 @@
       <c r="E7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="72"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:19" ht="45" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="85">
         <v>2</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="K8" s="64" t="s">
+      <c r="G8" s="86"/>
+      <c r="K8" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="55">
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="50">
         <f>SUM(B8:D37)</f>
         <v>71.5</v>
       </c>
-      <c r="S8" s="55"/>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:19" ht="45" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -4889,10 +5018,10 @@
       <c r="E9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="86"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -4915,10 +5044,10 @@
       <c r="E10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="86"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -4933,35 +5062,35 @@
       <c r="A11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="85">
         <v>2</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="45" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="85">
         <v>1.5</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="45" customHeight="1">
       <c r="A13" s="10" t="s">
@@ -4975,44 +5104,44 @@
       <c r="E13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="45" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="85">
         <v>3.5</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:19" ht="45" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="85">
         <v>2</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G15" s="72"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="45" customHeight="1">
       <c r="A16" s="10" t="s">
@@ -5026,10 +5155,10 @@
       <c r="E16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="72"/>
+      <c r="G16" s="86"/>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1">
       <c r="A17" s="10" t="s">
@@ -5043,44 +5172,44 @@
       <c r="E17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="72"/>
+      <c r="G17" s="86"/>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="85">
         <v>2</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="85">
         <v>1.5</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="72"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="10" t="s">
@@ -5094,10 +5223,10 @@
       <c r="E20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="72"/>
+      <c r="G20" s="86"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="10" t="s">
@@ -5111,27 +5240,27 @@
       <c r="E21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="85">
         <v>2</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="10" t="s">
@@ -5145,10 +5274,10 @@
       <c r="E23" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24" s="10" t="s">
@@ -5162,27 +5291,27 @@
       <c r="E24" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="85">
         <v>2</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="72"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -5196,44 +5325,44 @@
       <c r="E26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="72"/>
+      <c r="G26" s="86"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="85">
         <v>2</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="72"/>
+      <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="85">
         <v>2</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="72"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="10" t="s">
@@ -5247,95 +5376,95 @@
       <c r="E29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="72"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="85">
         <v>2</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="72"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="85">
         <v>1.5</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="74"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="75" t="s">
+      <c r="F31" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="72"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" spans="1:7" ht="31.5">
       <c r="A32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="85">
         <v>2</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="72"/>
+      <c r="G32" s="86"/>
     </row>
     <row r="33" spans="1:7" ht="31.5">
       <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="85">
         <v>2</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="72"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="1:7" ht="31.5">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="85">
         <v>2</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="72"/>
+      <c r="G34" s="86"/>
     </row>
     <row r="35" spans="1:7" ht="31.5">
       <c r="A35" s="10" t="s">
@@ -5346,13 +5475,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="E35" s="110" t="s">
+      <c r="E35" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="72"/>
+      <c r="G35" s="86"/>
     </row>
     <row r="36" spans="1:7" ht="32.25" thickBot="1">
       <c r="A36" s="10" t="s">
@@ -5363,30 +5492,30 @@
         <v>3</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="110" t="s">
+      <c r="E36" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="72"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="32.25" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="68">
+      <c r="B37" s="85">
         <v>1.5</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="72"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="9"/>
@@ -5399,18 +5528,34 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="B37:D37"/>
@@ -5427,36 +5572,20 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5466,733 +5595,699 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F378598-5022-45D4-B62B-E82C0C6166A2}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="113" customWidth="1"/>
-    <col min="2" max="8" width="12" style="113"/>
-    <col min="9" max="9" width="41" style="113" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" style="113" customWidth="1"/>
-    <col min="11" max="11" width="53.83203125" style="113" customWidth="1"/>
-    <col min="12" max="16384" width="12" style="113"/>
+    <col min="1" max="1" width="14.1640625" style="35" customWidth="1"/>
+    <col min="2" max="8" width="12" style="35"/>
+    <col min="9" max="9" width="41" style="35" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="53.83203125" style="35" customWidth="1"/>
+    <col min="12" max="16384" width="12" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:19" ht="21">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:19" ht="21">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="118" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="36" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="31.5">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="124"/>
-      <c r="I5" s="125" t="s">
+      <c r="G5" s="98"/>
+      <c r="I5" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="K5" s="39" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="31.5">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="127">
+      <c r="B6" s="94">
         <v>2</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="119" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="I6" s="128" t="s">
+      <c r="G6" s="98"/>
+      <c r="I6" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="130" t="s">
+      <c r="K6" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="R6" s="131">
+      <c r="R6" s="102">
         <f>SUM(B6:D21)</f>
         <v>30</v>
       </c>
-      <c r="S6" s="131"/>
+      <c r="S6" s="102"/>
     </row>
     <row r="7" spans="1:19" ht="31.5">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="94">
         <v>2</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="119" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="I7" s="128" t="s">
+      <c r="G7" s="98"/>
+      <c r="I7" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="K7" s="130" t="s">
+      <c r="K7" s="42" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="31.5">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="127">
+      <c r="B8" s="94">
         <v>1.5</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="119" t="s">
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="I8" s="128" t="s">
+      <c r="G8" s="98"/>
+      <c r="I8" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="129" t="s">
+      <c r="J8" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="K8" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="47.25">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="127">
+      <c r="B9" s="94">
         <v>2</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="119" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="I9" s="128" t="s">
+      <c r="G9" s="98"/>
+      <c r="I9" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="J9" s="129" t="s">
+      <c r="J9" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="130" t="s">
+      <c r="K9" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="31.5">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="127">
+      <c r="B10" s="94">
         <v>2</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="119" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="I10" s="128" t="s">
+      <c r="G10" s="98"/>
+      <c r="I10" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="J10" s="129" t="s">
+      <c r="J10" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="130" t="s">
+      <c r="K10" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="127">
+      <c r="B11" s="94">
         <v>1.5</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="119" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="I11" s="128" t="s">
+      <c r="G11" s="98"/>
+      <c r="I11" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="J11" s="129" t="s">
+      <c r="J11" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="130" t="s">
+      <c r="K11" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="31.5">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="127">
+      <c r="B12" s="94">
         <v>2</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="119" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="I12" s="128" t="s">
+      <c r="G12" s="98"/>
+      <c r="I12" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="J12" s="129" t="s">
+      <c r="J12" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="K12" s="130" t="s">
+      <c r="K12" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="47.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="94">
         <v>2</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="119" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="I13" s="128" t="s">
+      <c r="G13" s="98"/>
+      <c r="I13" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="J13" s="129" t="s">
+      <c r="J13" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="130" t="s">
+      <c r="K13" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="31.5">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="127">
+      <c r="B14" s="94">
         <v>2</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="119" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F14" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="I14" s="128" t="s">
+      <c r="G14" s="98"/>
+      <c r="I14" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="J14" s="129" t="s">
+      <c r="J14" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="K14" s="130" t="s">
+      <c r="K14" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="47.25">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="127">
+      <c r="B15" s="94">
         <v>2</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="119" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="I15" s="128" t="s">
+      <c r="G15" s="98"/>
+      <c r="I15" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="J15" s="129" t="s">
+      <c r="J15" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="K15" s="130" t="s">
+      <c r="K15" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="32.25" thickBot="1">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="127">
+      <c r="B16" s="94">
         <v>2</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="119" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="I16" s="128" t="s">
+      <c r="G16" s="98"/>
+      <c r="I16" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="J16" s="129" t="s">
+      <c r="J16" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="K16" s="130" t="s">
+      <c r="K16" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="48" thickBot="1">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="94">
         <v>1.5</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="135" t="s">
+      <c r="F17" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="I17" s="128" t="s">
+      <c r="G17" s="98"/>
+      <c r="I17" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="J17" s="129" t="s">
+      <c r="J17" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="K17" s="130" t="s">
+      <c r="K17" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="31.5">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="127">
+      <c r="B18" s="94">
         <v>2</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="119" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="124"/>
-      <c r="I18" s="128" t="s">
+      <c r="G18" s="98"/>
+      <c r="I18" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="129" t="s">
+      <c r="J18" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K18" s="130" t="s">
+      <c r="K18" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="47.25">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="127">
+      <c r="B19" s="94">
         <v>2</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="119" t="s">
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="I19" s="128" t="s">
+      <c r="G19" s="98"/>
+      <c r="I19" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="J19" s="129" t="s">
+      <c r="J19" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="130" t="s">
+      <c r="K19" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="32.25" thickBot="1">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="127">
+      <c r="B20" s="94">
         <v>2</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="119" t="s">
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="124"/>
-      <c r="I20" s="128" t="s">
+      <c r="G20" s="98"/>
+      <c r="I20" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="129" t="s">
+      <c r="J20" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="130" t="s">
+      <c r="K20" s="42" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="48" thickBot="1">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="127">
+      <c r="B21" s="94">
         <v>1.5</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134" t="s">
+      <c r="C21" s="95"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="124"/>
-      <c r="I21" s="128" t="s">
+      <c r="G21" s="98"/>
+      <c r="I21" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="129" t="s">
+      <c r="J21" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="K21" s="130" t="s">
+      <c r="K21" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.5">
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="I22" s="128" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="I22" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="129" t="s">
+      <c r="J22" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="130" t="s">
+      <c r="K22" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="63">
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="I23" s="128" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="I23" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="J23" s="129" t="s">
+      <c r="J23" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="K23" s="130" t="s">
+      <c r="K23" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75">
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
     </row>
     <row r="25" spans="1:11" ht="18.75">
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="18.75">
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="139"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="18.75">
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
     </row>
     <row r="28" spans="1:11" ht="18.75">
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="18.75">
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="K29" s="139"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:11" ht="18.75">
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="18.75">
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="18.75">
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="139"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="1:11" ht="18.75">
-      <c r="B33" s="138"/>
-      <c r="C33" s="139"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
     </row>
     <row r="34" spans="1:11" ht="18.75">
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
     </row>
     <row r="35" spans="1:11" ht="18.75">
-      <c r="B35" s="138"/>
-      <c r="C35" s="139"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="139"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
     </row>
     <row r="36" spans="1:11" ht="18.75">
-      <c r="B36" s="138"/>
-      <c r="C36" s="139"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
     </row>
     <row r="37" spans="1:11" ht="18.75">
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
     </row>
     <row r="38" spans="1:11" ht="18.75">
-      <c r="B38" s="138"/>
-      <c r="C38" s="139"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="139"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="18.75">
-      <c r="B39" s="138"/>
-      <c r="C39" s="139"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="139"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="47"/>
     </row>
     <row r="40" spans="1:11" ht="18.75">
-      <c r="A40" s="141"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="139"/>
-      <c r="I40" s="142"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:11" ht="18.75">
-      <c r="A41" s="141"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47"/>
     </row>
     <row r="42" spans="1:11" ht="18.75">
-      <c r="A42" s="141"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="139"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
     </row>
     <row r="43" spans="1:11" ht="18.75">
-      <c r="A43" s="141"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="139"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
     </row>
     <row r="44" spans="1:11" ht="18.75">
-      <c r="A44" s="141"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="139"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
     </row>
     <row r="45" spans="1:11" ht="18.75">
-      <c r="A45" s="141"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="139"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
     </row>
     <row r="46" spans="1:11" ht="18.75">
-      <c r="A46" s="141"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="139"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
     </row>
     <row r="47" spans="1:11" ht="18.75">
-      <c r="A47" s="141"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47"/>
     </row>
     <row r="48" spans="1:11" ht="18.75">
-      <c r="A48" s="141"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="139"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
     </row>
     <row r="49" spans="1:3" ht="18.75">
-      <c r="A49" s="141"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
     </row>
     <row r="50" spans="1:3" ht="18.75">
-      <c r="A50" s="141"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
     </row>
     <row r="51" spans="1:3" ht="18.75">
-      <c r="A51" s="141"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A1:B1"/>
@@ -6200,6 +6295,40 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6219,15 +6348,15 @@
       <c r="A1" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23"/>
     </row>
@@ -6259,992 +6388,938 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="108"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="107" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="108"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="80">
+      <c r="A10" s="114">
         <v>12</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="78" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80" t="s">
+      <c r="E10" s="115"/>
+      <c r="F10" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="81"/>
+      <c r="G10" s="115"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
     </row>
     <row r="12" spans="1:11" ht="59.25" customHeight="1">
-      <c r="A12" s="80">
+      <c r="A12" s="114">
         <v>13</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="78" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80" t="s">
+      <c r="E12" s="115"/>
+      <c r="F12" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="81"/>
+      <c r="G12" s="115"/>
       <c r="K12" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="117"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="80">
+      <c r="A14" s="114">
         <v>15</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="78" t="s">
+      <c r="B14" s="115"/>
+      <c r="C14" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="80" t="s">
+      <c r="E14" s="115"/>
+      <c r="F14" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="115"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="117"/>
     </row>
     <row r="16" spans="1:11" ht="101.25" customHeight="1">
-      <c r="A16" s="80">
+      <c r="A16" s="114">
         <v>18</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="78" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="80" t="s">
+      <c r="E16" s="115"/>
+      <c r="F16" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="115"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="80">
+      <c r="A18" s="114">
         <v>19</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="80" t="s">
+      <c r="E18" s="115"/>
+      <c r="F18" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="115"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117"/>
     </row>
     <row r="20" spans="1:7" ht="135" customHeight="1" thickBot="1">
-      <c r="A20" s="101">
+      <c r="A20" s="120">
         <v>45555</v>
       </c>
-      <c r="B20" s="102"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="103" t="s">
+      <c r="E20" s="123"/>
+      <c r="F20" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="104"/>
+      <c r="G20" s="123"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1">
-      <c r="A21" s="80">
+      <c r="A21" s="114">
         <v>22</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="115"/>
+      <c r="C21" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="80" t="s">
+      <c r="E21" s="115"/>
+      <c r="F21" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="115"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="91">
+      <c r="A23" s="127">
         <v>45560</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="78" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="80" t="s">
+      <c r="E23" s="115"/>
+      <c r="F23" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="81"/>
+      <c r="G23" s="115"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="125"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="125"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="125"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="125"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="84"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="125"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="84"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="125"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="117"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="80">
+      <c r="A31" s="114">
         <v>26</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="78" t="s">
+      <c r="B31" s="115"/>
+      <c r="C31" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="80" t="s">
+      <c r="E31" s="115"/>
+      <c r="F31" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="81"/>
+      <c r="G31" s="115"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="84"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125"/>
     </row>
     <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="84"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="117"/>
     </row>
     <row r="35" spans="1:7" ht="119.25" customHeight="1">
-      <c r="A35" s="80">
+      <c r="A35" s="114">
         <v>27</v>
       </c>
-      <c r="B35" s="81"/>
-      <c r="C35" s="78" t="s">
+      <c r="B35" s="115"/>
+      <c r="C35" s="118" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="81"/>
-      <c r="F35" s="80" t="s">
+      <c r="E35" s="115"/>
+      <c r="F35" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="81"/>
+      <c r="G35" s="115"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="77"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="117"/>
     </row>
     <row r="37" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A37" s="80">
+      <c r="A37" s="114">
         <v>2</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="78" t="s">
+      <c r="B37" s="115"/>
+      <c r="C37" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="80" t="s">
+      <c r="E37" s="115"/>
+      <c r="F37" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="81"/>
+      <c r="G37" s="115"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="77"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="80">
+      <c r="A39" s="114">
         <v>3</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="78" t="s">
+      <c r="B39" s="115"/>
+      <c r="C39" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="80" t="s">
+      <c r="E39" s="115"/>
+      <c r="F39" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="81"/>
+      <c r="G39" s="115"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="117"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
-      <c r="A41" s="80">
+      <c r="A41" s="114">
         <v>5</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="78" t="s">
+      <c r="B41" s="115"/>
+      <c r="C41" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="80" t="s">
+      <c r="E41" s="115"/>
+      <c r="F41" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="81"/>
+      <c r="G41" s="115"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="117"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="80">
+      <c r="A43" s="114">
         <v>6</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="78" t="s">
+      <c r="B43" s="115"/>
+      <c r="C43" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="80" t="s">
+      <c r="D43" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="80" t="s">
+      <c r="E43" s="115"/>
+      <c r="F43" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="G43" s="81"/>
+      <c r="G43" s="115"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="117"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="80">
+      <c r="A45" s="114">
         <v>9</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="78" t="s">
+      <c r="B45" s="115"/>
+      <c r="C45" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="80" t="s">
+      <c r="E45" s="115"/>
+      <c r="F45" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="81"/>
+      <c r="G45" s="115"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="84"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="125"/>
     </row>
     <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="125"/>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="83"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="84"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="125"/>
     </row>
     <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="83"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
     </row>
     <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="83"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="125"/>
     </row>
     <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="83"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="84"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="125"/>
     </row>
     <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="84"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="125"/>
     </row>
     <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="83"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="84"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="125"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="117"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="80">
+      <c r="A55" s="114">
         <v>10</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="78" t="s">
+      <c r="B55" s="115"/>
+      <c r="C55" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="80" t="s">
+      <c r="E55" s="115"/>
+      <c r="F55" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G55" s="81"/>
+      <c r="G55" s="115"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="77"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="117"/>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
-      <c r="A57" s="80">
+      <c r="A57" s="114">
         <v>17</v>
       </c>
-      <c r="B57" s="81"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="28"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="115"/>
     </row>
     <row r="58" spans="1:7" ht="30" customHeight="1">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="83" t="s">
+      <c r="E58" s="125"/>
+      <c r="F58" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="125"/>
     </row>
     <row r="59" spans="1:7" ht="15">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="30"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="84"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="125"/>
     </row>
     <row r="60" spans="1:7" ht="15">
-      <c r="A60" s="97"/>
-      <c r="B60" s="98"/>
+      <c r="A60" s="135"/>
+      <c r="B60" s="136"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="84"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="125"/>
     </row>
     <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="97"/>
-      <c r="B61" s="98"/>
+      <c r="A61" s="135"/>
+      <c r="B61" s="136"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="84"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="125"/>
     </row>
     <row r="62" spans="1:7" ht="15">
-      <c r="A62" s="97"/>
-      <c r="B62" s="98"/>
+      <c r="A62" s="135"/>
+      <c r="B62" s="136"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="84"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="125"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A63" s="95"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="133"/>
+      <c r="B63" s="134"/>
       <c r="C63" s="31"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="77"/>
+      <c r="D63" s="133"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="117"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="80">
+      <c r="A64" s="114">
         <v>23</v>
       </c>
-      <c r="B64" s="81"/>
-      <c r="C64" s="78" t="s">
+      <c r="B64" s="115"/>
+      <c r="C64" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="80" t="s">
+      <c r="D64" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="80" t="s">
+      <c r="E64" s="115"/>
+      <c r="F64" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="81"/>
+      <c r="G64" s="115"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="84"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="125"/>
     </row>
     <row r="66" spans="1:7" ht="15">
-      <c r="A66" s="83"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="125"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="77"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="117"/>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1">
-      <c r="A68" s="80">
+      <c r="A68" s="114">
         <v>24</v>
       </c>
-      <c r="B68" s="81"/>
-      <c r="C68" s="78" t="s">
+      <c r="B68" s="115"/>
+      <c r="C68" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="80" t="s">
+      <c r="D68" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="81"/>
-      <c r="F68" s="80" t="s">
+      <c r="E68" s="115"/>
+      <c r="F68" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="81"/>
+      <c r="G68" s="115"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A69" s="76" t="s">
+      <c r="A69" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="77"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="117"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="80">
+      <c r="A70" s="114">
         <v>31</v>
       </c>
-      <c r="B70" s="81"/>
-      <c r="C70" s="78" t="s">
+      <c r="B70" s="115"/>
+      <c r="C70" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="80" t="s">
+      <c r="D70" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="80" t="s">
+      <c r="E70" s="115"/>
+      <c r="F70" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G70" s="81"/>
+      <c r="G70" s="115"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A71" s="76" t="s">
+      <c r="A71" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="77"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="117"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="80">
+      <c r="A72" s="114">
         <v>5</v>
       </c>
-      <c r="B72" s="81"/>
-      <c r="C72" s="78" t="s">
+      <c r="B72" s="115"/>
+      <c r="C72" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="85" t="s">
+      <c r="E72" s="115"/>
+      <c r="F72" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="G72" s="86"/>
+      <c r="G72" s="138"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="88"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="139"/>
+      <c r="G73" s="140"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A74" s="76"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="90"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="117"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="142"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A75" s="91">
+      <c r="A75" s="127">
         <v>45603</v>
       </c>
-      <c r="B75" s="92"/>
-      <c r="C75" s="78" t="s">
+      <c r="B75" s="128"/>
+      <c r="C75" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="80" t="s">
+      <c r="D75" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="80" t="s">
+      <c r="E75" s="115"/>
+      <c r="F75" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="81"/>
+      <c r="G75" s="115"/>
     </row>
     <row r="76" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A76" s="93"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="77"/>
+      <c r="A76" s="131"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="117"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
-      <c r="A77" s="80">
+      <c r="A77" s="114">
         <v>14</v>
       </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="78" t="s">
+      <c r="B77" s="115"/>
+      <c r="C77" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D77" s="80" t="s">
+      <c r="D77" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="81"/>
-      <c r="F77" s="80" t="s">
+      <c r="E77" s="115"/>
+      <c r="F77" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="81"/>
+      <c r="G77" s="115"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="B78" s="77"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="77"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="119"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="117"/>
     </row>
     <row r="79" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A79" s="80">
+      <c r="A79" s="114">
         <v>16</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="78" t="s">
+      <c r="B79" s="115"/>
+      <c r="C79" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="80" t="s">
+      <c r="D79" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="81"/>
-      <c r="F79" s="80" t="s">
+      <c r="E79" s="115"/>
+      <c r="F79" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="G79" s="81"/>
+      <c r="G79" s="115"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="77"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:E34"/>
-    <mergeCell ref="F31:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A23:B30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:E30"/>
-    <mergeCell ref="F23:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="F45:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:E56"/>
-    <mergeCell ref="F55:G56"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:E54"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:E80"/>
+    <mergeCell ref="F79:G80"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:E78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:E74"/>
+    <mergeCell ref="F72:G74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:E76"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:E69"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:E67"/>
+    <mergeCell ref="F64:G67"/>
     <mergeCell ref="F57:G57"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="F59:G59"/>
@@ -7265,46 +7340,589 @@
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:E69"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:E67"/>
-    <mergeCell ref="F64:G67"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:E74"/>
-    <mergeCell ref="F72:G74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:E76"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="F70:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:E80"/>
-    <mergeCell ref="F79:G80"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:E78"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="F45:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:G56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:E54"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:E34"/>
+    <mergeCell ref="F31:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A23:B30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:E30"/>
+    <mergeCell ref="F23:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBAB3B6-EA88-4361-AC25-AF9DB9155DE0}">
+  <dimension ref="A2:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17" style="146" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="146" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="146" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="146" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="146" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="146"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="143" customFormat="1" ht="21">
+      <c r="A2" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="144" customFormat="1" ht="21">
+      <c r="A3" s="143" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="144" customFormat="1" ht="15.75">
+      <c r="A4" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="144" customFormat="1" ht="15.75">
+      <c r="A5" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="144" customFormat="1" ht="15.75">
+      <c r="A6" s="145"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="B8" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="147" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="147" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="148">
+        <v>45547</v>
+      </c>
+      <c r="C9" s="146">
+        <v>2</v>
+      </c>
+      <c r="D9" s="146">
+        <f>C9</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5">
+      <c r="B10" s="148">
+        <v>45549</v>
+      </c>
+      <c r="C10" s="146">
+        <v>6</v>
+      </c>
+      <c r="D10" s="146">
+        <f t="shared" ref="D10:D36" si="0">C10+D9</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="148">
+        <v>45550</v>
+      </c>
+      <c r="C11" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="146">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="146" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="148">
+        <v>45553</v>
+      </c>
+      <c r="C12" s="146">
+        <v>7</v>
+      </c>
+      <c r="D12" s="146">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="148">
+        <v>45554</v>
+      </c>
+      <c r="C13" s="146">
+        <v>2</v>
+      </c>
+      <c r="D13" s="146">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="E13" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="148">
+        <v>45556</v>
+      </c>
+      <c r="C14" s="146">
+        <v>5</v>
+      </c>
+      <c r="D14" s="146">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="E14" s="146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="148">
+        <v>45557</v>
+      </c>
+      <c r="C15" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="146">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="148">
+        <v>45560</v>
+      </c>
+      <c r="C16" s="146">
+        <v>5</v>
+      </c>
+      <c r="D16" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="148">
+        <v>45561</v>
+      </c>
+      <c r="C17" s="146">
+        <v>2</v>
+      </c>
+      <c r="D17" s="146">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="148">
+        <v>45563</v>
+      </c>
+      <c r="C18" s="146">
+        <v>3</v>
+      </c>
+      <c r="D18" s="146">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="148">
+        <v>45568</v>
+      </c>
+      <c r="C19" s="146">
+        <v>2</v>
+      </c>
+      <c r="D19" s="146">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E19" s="146" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="148">
+        <v>45570</v>
+      </c>
+      <c r="C20" s="146">
+        <v>6</v>
+      </c>
+      <c r="D20" s="146">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="148">
+        <v>45571</v>
+      </c>
+      <c r="C21" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="146">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+      <c r="E21" s="146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="148">
+        <v>45573</v>
+      </c>
+      <c r="C22" s="146">
+        <v>4</v>
+      </c>
+      <c r="D22" s="146">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="E22" s="146" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="148">
+        <v>45575</v>
+      </c>
+      <c r="C23" s="146">
+        <v>2</v>
+      </c>
+      <c r="D23" s="146">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="148">
+        <v>45577</v>
+      </c>
+      <c r="C24" s="146">
+        <v>2</v>
+      </c>
+      <c r="D24" s="146">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="148">
+        <v>45582</v>
+      </c>
+      <c r="C25" s="146">
+        <v>2</v>
+      </c>
+      <c r="D25" s="146">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="148">
+        <v>45589</v>
+      </c>
+      <c r="C26" s="146">
+        <v>2</v>
+      </c>
+      <c r="D26" s="146">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="148">
+        <v>45590</v>
+      </c>
+      <c r="C27" s="146">
+        <v>5</v>
+      </c>
+      <c r="D27" s="146">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="E27" s="146" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="148">
+        <v>45596</v>
+      </c>
+      <c r="C28" s="146">
+        <v>2</v>
+      </c>
+      <c r="D28" s="146">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="148">
+        <v>45598</v>
+      </c>
+      <c r="C29" s="146">
+        <v>3</v>
+      </c>
+      <c r="D29" s="146">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="148">
+        <v>45603</v>
+      </c>
+      <c r="C30" s="146">
+        <v>2</v>
+      </c>
+      <c r="D30" s="146">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="E30" s="146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="148">
+        <v>45606</v>
+      </c>
+      <c r="C31" s="146">
+        <v>5.5</v>
+      </c>
+      <c r="D31" s="146">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E31" s="146" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="148">
+        <v>45607</v>
+      </c>
+      <c r="C32" s="146">
+        <v>6</v>
+      </c>
+      <c r="D32" s="146">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E32" s="146" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="148">
+        <v>45610</v>
+      </c>
+      <c r="C33" s="146">
+        <v>1</v>
+      </c>
+      <c r="D33" s="146">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E33" s="146" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15">
+      <c r="B34" s="148">
+        <v>45610</v>
+      </c>
+      <c r="C34" s="146">
+        <v>2</v>
+      </c>
+      <c r="D34" s="146">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E34" s="151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="148">
+        <v>45613</v>
+      </c>
+      <c r="C35" s="146">
+        <v>2</v>
+      </c>
+      <c r="D35" s="146">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E35" s="146" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="148">
+        <v>45613</v>
+      </c>
+      <c r="C36" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="146">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+      <c r="E36" s="146" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>